--- a/analysis/GeneOntology/Jenkins/GO_all.xlsx
+++ b/analysis/GeneOntology/Jenkins/GO_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GO_all" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
   <si>
     <t>Category</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1986,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,48 +1998,48 @@
     <col min="3" max="3" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>2.7027027027027</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5.6244313769958297E-6</v>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1">
-        <v>92</v>
-      </c>
-      <c r="I1">
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <v>66065</v>
-      </c>
-      <c r="K1">
-        <v>718.09782608695605</v>
-      </c>
-      <c r="L1">
-        <v>1.16920096768513E-3</v>
-      </c>
-      <c r="M1">
-        <v>1.16920096768513E-3</v>
-      </c>
-      <c r="N1">
-        <v>7.0946677808381101E-3</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2047,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2091,43 +2091,43 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>8.1081081081080999</v>
-      </c>
-      <c r="F3">
-        <v>8.1392652206148004E-3</v>
+        <v>2.7027027027027</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.6244313769958297E-6</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>92</v>
       </c>
       <c r="I3">
-        <v>2084</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>66065</v>
       </c>
       <c r="K3">
-        <v>3.1011902278227401</v>
+        <v>718.09782608695605</v>
       </c>
       <c r="L3">
-        <v>0.81729720821539098</v>
+        <v>1.16920096768513E-3</v>
       </c>
       <c r="M3">
-        <v>0.57256252880145297</v>
+        <v>1.16920096768513E-3</v>
       </c>
       <c r="N3">
-        <v>9.79562976025497</v>
+        <v>7.0946677808381101E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2135,43 +2135,43 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>1.8018018018018001</v>
+        <v>8.1081081081080999</v>
       </c>
       <c r="F4">
-        <v>9.6027011737055794E-3</v>
+        <v>8.1392652206148004E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>92</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>2084</v>
       </c>
       <c r="J4">
         <v>66065</v>
       </c>
       <c r="K4">
-        <v>205.17080745341599</v>
+        <v>3.1011902278227401</v>
       </c>
       <c r="L4">
-        <v>0.86561059927617201</v>
+        <v>0.81729720821539098</v>
       </c>
       <c r="M4">
-        <v>0.48778179984732101</v>
+        <v>0.57256252880145297</v>
       </c>
       <c r="N4">
-        <v>11.460194092766599</v>
+        <v>9.79562976025497</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2179,43 +2179,43 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>6.3063063063062996</v>
+        <v>1.8018018018018001</v>
       </c>
       <c r="F5">
-        <v>1.3172680916450999E-2</v>
+        <v>9.6027011737055794E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>92</v>
       </c>
       <c r="I5">
-        <v>1404</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>66065</v>
       </c>
       <c r="K5">
-        <v>3.5802598166728599</v>
+        <v>205.17080745341599</v>
       </c>
       <c r="L5">
-        <v>0.93658936706648699</v>
+        <v>0.86561059927617201</v>
       </c>
       <c r="M5">
-        <v>0.49818860142291099</v>
+        <v>0.48778179984732101</v>
       </c>
       <c r="N5">
-        <v>15.402882444882801</v>
+        <v>11.460194092766599</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2223,43 +2223,43 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>5.4054054054053999</v>
+        <v>6.3063063063062996</v>
       </c>
       <c r="F6">
-        <v>2.18067403465938E-2</v>
+        <v>1.3172680916450999E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>92</v>
       </c>
       <c r="I6">
-        <v>1153</v>
+        <v>1404</v>
       </c>
       <c r="J6">
         <v>66065</v>
       </c>
       <c r="K6">
-        <v>3.7368490516233601</v>
+        <v>3.5802598166728599</v>
       </c>
       <c r="L6">
-        <v>0.98980633126817097</v>
+        <v>0.93658936706648699</v>
       </c>
       <c r="M6">
-        <v>0.60036261990280204</v>
+        <v>0.49818860142291099</v>
       </c>
       <c r="N6">
-        <v>24.2796487094203</v>
+        <v>15.402882444882801</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2267,43 +2267,43 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>2.7027027027027</v>
+        <v>5.4054054054053999</v>
       </c>
       <c r="F7">
-        <v>2.9333876115835999E-2</v>
+        <v>2.18067403465938E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>92</v>
       </c>
       <c r="I7">
-        <v>193</v>
+        <v>1153</v>
       </c>
       <c r="J7">
         <v>66065</v>
       </c>
       <c r="K7">
-        <v>11.162142374408599</v>
+        <v>3.7368490516233601</v>
       </c>
       <c r="L7">
-        <v>0.99795575191965202</v>
+        <v>0.98980633126817097</v>
       </c>
       <c r="M7">
-        <v>0.64374940384935797</v>
+        <v>0.60036261990280204</v>
       </c>
       <c r="N7">
-        <v>31.3099518608749</v>
+        <v>24.2796487094203</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2311,43 +2311,43 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>6.3063063063062996</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="F8">
-        <v>3.59008096548852E-2</v>
+        <v>2.9333876115835999E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>92</v>
       </c>
       <c r="I8">
-        <v>1772</v>
+        <v>193</v>
       </c>
       <c r="J8">
         <v>66065</v>
       </c>
       <c r="K8">
-        <v>2.8367295612915799</v>
+        <v>11.162142374408599</v>
       </c>
       <c r="L8">
-        <v>0.99950189904675601</v>
+        <v>0.99795575191965202</v>
       </c>
       <c r="M8">
-        <v>0.66256650039918696</v>
+        <v>0.64374940384935797</v>
       </c>
       <c r="N8">
-        <v>36.947178224970401</v>
+        <v>31.3099518608749</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2355,42 +2355,86 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>5.4054054054053999</v>
+        <v>6.3063063063062996</v>
       </c>
       <c r="F9">
-        <v>7.3964937382827403E-2</v>
+        <v>3.59008096548852E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>92</v>
       </c>
       <c r="I9">
-        <v>1624</v>
+        <v>1772</v>
       </c>
       <c r="J9">
         <v>66065</v>
       </c>
       <c r="K9">
+        <v>2.8367295612915799</v>
+      </c>
+      <c r="L9">
+        <v>0.99950189904675601</v>
+      </c>
+      <c r="M9">
+        <v>0.66256650039918696</v>
+      </c>
+      <c r="N9">
+        <v>36.947178224970401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5.4054054054053999</v>
+      </c>
+      <c r="F10">
+        <v>7.3964937382827403E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+      <c r="I10">
+        <v>1624</v>
+      </c>
+      <c r="J10">
+        <v>66065</v>
+      </c>
+      <c r="K10">
         <v>2.65307078603555</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>0.99999988557903696</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>0.86438329147299997</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>62.066399511242103</v>
       </c>
     </row>
@@ -2401,56 +2445,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>2.7027027027027</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1.7995428718134101E-4</v>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1">
-        <v>97</v>
-      </c>
-      <c r="I1">
-        <v>14</v>
-      </c>
-      <c r="J1">
-        <v>67534</v>
-      </c>
-      <c r="K1">
-        <v>149.191458026509</v>
-      </c>
-      <c r="L1">
-        <v>6.0708796851253098E-2</v>
-      </c>
-      <c r="M1">
-        <v>6.0708796851253098E-2</v>
-      </c>
-      <c r="N1">
-        <v>0.245629968250626</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2458,10 +2502,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2469,8 +2513,8 @@
       <c r="E2">
         <v>2.7027027027027</v>
       </c>
-      <c r="F2">
-        <v>1.43180767974666E-3</v>
+      <c r="F2" s="1">
+        <v>1.7995428718134101E-4</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -2479,22 +2523,22 @@
         <v>97</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>67534</v>
       </c>
       <c r="K2">
-        <v>53.555908009516202</v>
+        <v>149.191458026509</v>
       </c>
       <c r="L2">
-        <v>0.39263547099412799</v>
+        <v>6.0708796851253098E-2</v>
       </c>
       <c r="M2">
-        <v>0.22066404612268001</v>
+        <v>6.0708796851253098E-2</v>
       </c>
       <c r="N2">
-        <v>1.9389428536305899</v>
+        <v>0.245629968250626</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2502,43 +2546,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>9.0090090090090094</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="F3">
-        <v>4.6397056315645299E-3</v>
+        <v>1.43180767974666E-3</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>97</v>
       </c>
       <c r="I3">
-        <v>2238</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>67534</v>
       </c>
       <c r="K3">
-        <v>3.1109329942971899</v>
+        <v>53.555908009516202</v>
       </c>
       <c r="L3">
-        <v>0.80177942659360202</v>
+        <v>0.39263547099412799</v>
       </c>
       <c r="M3">
-        <v>0.41693597984663699</v>
+        <v>0.22066404612268001</v>
       </c>
       <c r="N3">
-        <v>6.15725732628185</v>
+        <v>1.9389428536305899</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2546,43 +2590,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>1.8018018018018001</v>
+        <v>9.0090090090090094</v>
       </c>
       <c r="F4">
-        <v>5.6740379821182104E-3</v>
+        <v>4.6397056315645299E-3</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>97</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>2238</v>
       </c>
       <c r="J4">
         <v>67534</v>
       </c>
       <c r="K4">
-        <v>348.11340206185503</v>
+        <v>3.1109329942971899</v>
       </c>
       <c r="L4">
-        <v>0.86195676938671895</v>
+        <v>0.80177942659360202</v>
       </c>
       <c r="M4">
-        <v>0.39045779939907999</v>
+        <v>0.41693597984663699</v>
       </c>
       <c r="N4">
-        <v>7.4811072516108998</v>
+        <v>6.15725732628185</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2590,43 +2634,43 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3.6036036036036001</v>
+        <v>1.8018018018018001</v>
       </c>
       <c r="F5">
-        <v>9.7357730751015704E-3</v>
+        <v>5.6740379821182104E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>97</v>
       </c>
       <c r="I5">
-        <v>307</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <v>67534</v>
       </c>
       <c r="K5">
-        <v>9.0713590113838602</v>
+        <v>348.11340206185503</v>
       </c>
       <c r="L5">
-        <v>0.96678153895029195</v>
+        <v>0.86195676938671895</v>
       </c>
       <c r="M5">
-        <v>0.49385389199513602</v>
+        <v>0.39045779939907999</v>
       </c>
       <c r="N5">
-        <v>12.514099023456099</v>
+        <v>7.4811072516108998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2634,43 +2678,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1.8018018018018001</v>
+        <v>3.6036036036036001</v>
       </c>
       <c r="F6">
-        <v>1.55270449049499E-2</v>
+        <v>9.7357730751015704E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>97</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="J6">
         <v>67534</v>
       </c>
       <c r="K6">
-        <v>126.586691658856</v>
+        <v>9.0713590113838602</v>
       </c>
       <c r="L6">
-        <v>0.99568561499458497</v>
+        <v>0.96678153895029195</v>
       </c>
       <c r="M6">
-        <v>0.59652204003332399</v>
+        <v>0.49385389199513602</v>
       </c>
       <c r="N6">
-        <v>19.252542566910002</v>
+        <v>12.514099023456099</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2678,43 +2722,43 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2.7027027027027</v>
+        <v>1.8018018018018001</v>
       </c>
       <c r="F7">
-        <v>2.6240278315765399E-2</v>
+        <v>1.55270449049499E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>97</v>
       </c>
       <c r="I7">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>67534</v>
       </c>
       <c r="K7">
-        <v>11.867502343017801</v>
+        <v>126.586691658856</v>
       </c>
       <c r="L7">
-        <v>0.99990423017818797</v>
+        <v>0.99568561499458497</v>
       </c>
       <c r="M7">
-        <v>0.73338178817410604</v>
+        <v>0.59652204003332399</v>
       </c>
       <c r="N7">
-        <v>30.4667785337436</v>
+        <v>19.252542566910002</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2722,10 +2766,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -2734,31 +2778,31 @@
         <v>2.7027027027027</v>
       </c>
       <c r="F8">
-        <v>3.9762345365157603E-2</v>
+        <v>2.6240278315765399E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H8">
         <v>97</v>
       </c>
       <c r="I8">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="J8">
         <v>67534</v>
       </c>
       <c r="K8">
-        <v>9.4510425899146302</v>
+        <v>11.867502343017801</v>
       </c>
       <c r="L8">
-        <v>0.99999926243745796</v>
+        <v>0.99990423017818797</v>
       </c>
       <c r="M8">
-        <v>0.82881139356834399</v>
+        <v>0.73338178817410604</v>
       </c>
       <c r="N8">
-        <v>42.561517496824102</v>
+        <v>30.4667785337436</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2766,43 +2810,43 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>4.5045045045045002</v>
+        <v>2.7027027027027</v>
       </c>
       <c r="F9">
-        <v>4.66292057184177E-2</v>
+        <v>3.9762345365157603E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>97</v>
       </c>
       <c r="I9">
-        <v>948</v>
+        <v>221</v>
       </c>
       <c r="J9">
         <v>67534</v>
       </c>
       <c r="K9">
-        <v>3.6720823002305401</v>
+        <v>9.4510425899146302</v>
       </c>
       <c r="L9">
-        <v>0.99999993930938202</v>
+        <v>0.99999926243745796</v>
       </c>
       <c r="M9">
-        <v>0.84219359832116703</v>
+        <v>0.82881139356834399</v>
       </c>
       <c r="N9">
-        <v>47.927282310364198</v>
+        <v>42.561517496824102</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2810,43 +2854,43 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>3.6036036036036001</v>
+        <v>4.5045045045045002</v>
       </c>
       <c r="F10">
-        <v>5.7056937848072503E-2</v>
+        <v>4.66292057184177E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>97</v>
       </c>
       <c r="I10">
-        <v>612</v>
+        <v>948</v>
       </c>
       <c r="J10">
         <v>67534</v>
       </c>
       <c r="K10">
-        <v>4.5505019877366699</v>
+        <v>3.6720823002305401</v>
       </c>
       <c r="L10">
-        <v>0.99999999867887601</v>
+        <v>0.99999993930938202</v>
       </c>
       <c r="M10">
-        <v>0.87055230023266705</v>
+        <v>0.84219359832116703</v>
       </c>
       <c r="N10">
-        <v>55.193560285054303</v>
+        <v>47.927282310364198</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2854,43 +2898,43 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1.8018018018018001</v>
+        <v>3.6036036036036001</v>
       </c>
       <c r="F11">
-        <v>6.8679408483060103E-2</v>
+        <v>5.7056937848072503E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>97</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>612</v>
       </c>
       <c r="J11">
         <v>67534</v>
       </c>
       <c r="K11">
-        <v>27.849072164948399</v>
+        <v>4.5505019877366699</v>
       </c>
       <c r="L11">
-        <v>0.999999999982359</v>
+        <v>0.99999999867887601</v>
       </c>
       <c r="M11">
-        <v>0.89470415773508705</v>
+        <v>0.87055230023266705</v>
       </c>
       <c r="N11">
-        <v>62.178704799037099</v>
+        <v>55.193560285054303</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2898,10 +2942,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2910,31 +2954,31 @@
         <v>1.8018018018018001</v>
       </c>
       <c r="F12">
-        <v>7.6600637393270804E-2</v>
+        <v>6.8679408483060103E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>97</v>
       </c>
       <c r="I12">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>67534</v>
       </c>
       <c r="K12">
-        <v>24.8652430044182</v>
+        <v>27.849072164948399</v>
       </c>
       <c r="L12">
-        <v>0.99999999999909694</v>
+        <v>0.999999999982359</v>
       </c>
       <c r="M12">
-        <v>0.90084889864802598</v>
+        <v>0.89470415773508705</v>
       </c>
       <c r="N12">
-        <v>66.345454706995795</v>
+        <v>62.178704799037099</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2942,10 +2986,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2954,31 +2998,31 @@
         <v>1.8018018018018001</v>
       </c>
       <c r="F13">
-        <v>8.1844379459295499E-2</v>
+        <v>7.6600637393270804E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>97</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J13">
         <v>67534</v>
       </c>
       <c r="K13">
-        <v>23.207560137457001</v>
+        <v>24.8652430044182</v>
       </c>
       <c r="L13">
-        <v>0.99999999999987499</v>
+        <v>0.99999999999909694</v>
       </c>
       <c r="M13">
-        <v>0.89830542167774796</v>
+        <v>0.90084889864802598</v>
       </c>
       <c r="N13">
-        <v>68.865198036212902</v>
+        <v>66.345454706995795</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2986,10 +3030,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2998,31 +3042,31 @@
         <v>1.8018018018018001</v>
       </c>
       <c r="F14">
-        <v>8.7058652126226696E-2</v>
+        <v>8.1844379459295499E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>97</v>
       </c>
       <c r="I14">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J14">
         <v>67534</v>
       </c>
       <c r="K14">
-        <v>21.7570876288659</v>
+        <v>23.207560137457001</v>
       </c>
       <c r="L14">
-        <v>0.99999999999998201</v>
+        <v>0.99999999999987499</v>
       </c>
       <c r="M14">
-        <v>0.89607430330358395</v>
+        <v>0.89830542167774796</v>
       </c>
       <c r="N14">
-        <v>71.196419099413404</v>
+        <v>68.865198036212902</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3030,42 +3074,86 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>7.2072072072072002</v>
+        <v>1.8018018018018001</v>
       </c>
       <c r="F15">
-        <v>9.2668748425010494E-2</v>
+        <v>8.7058652126226696E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>97</v>
       </c>
       <c r="I15">
-        <v>2719</v>
+        <v>64</v>
       </c>
       <c r="J15">
         <v>67534</v>
       </c>
       <c r="K15">
+        <v>21.7570876288659</v>
+      </c>
+      <c r="L15">
+        <v>0.99999999999998201</v>
+      </c>
+      <c r="M15">
+        <v>0.89607430330358395</v>
+      </c>
+      <c r="N15">
+        <v>71.196419099413404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>7.2072072072072002</v>
+      </c>
+      <c r="F16">
+        <v>9.2668748425010494E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>97</v>
+      </c>
+      <c r="I16">
+        <v>2719</v>
+      </c>
+      <c r="J16">
+        <v>67534</v>
+      </c>
+      <c r="K16">
         <v>2.0484790117652398</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.999999999999998</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>0.89524658805312096</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>73.523241759509304</v>
       </c>
     </row>
@@ -3076,56 +3164,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1">
-        <v>28</v>
-      </c>
-      <c r="E1">
-        <v>25.225225225225198</v>
-      </c>
-      <c r="F1">
-        <v>6.3777010331065396E-3</v>
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1">
-        <v>99</v>
-      </c>
-      <c r="I1">
-        <v>11628</v>
-      </c>
-      <c r="J1">
-        <v>68124</v>
-      </c>
-      <c r="K1">
-        <v>1.65698262292689</v>
-      </c>
-      <c r="L1">
-        <v>0.52087053073435896</v>
-      </c>
-      <c r="M1">
-        <v>0.52087053073435896</v>
-      </c>
-      <c r="N1">
-        <v>7.0287476472872399</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -3133,43 +3221,43 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>13.5135135135135</v>
+        <v>25.225225225225198</v>
       </c>
       <c r="F2">
-        <v>2.2807837793595701E-2</v>
+        <v>6.3777010331065396E-3</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>99</v>
       </c>
       <c r="I2">
-        <v>5411</v>
+        <v>11628</v>
       </c>
       <c r="J2">
         <v>68124</v>
       </c>
       <c r="K2">
-        <v>1.9075620369281401</v>
+        <v>1.65698262292689</v>
       </c>
       <c r="L2">
-        <v>0.92957982174730103</v>
+        <v>0.52087053073435896</v>
       </c>
       <c r="M2">
-        <v>0.73463199467023399</v>
+        <v>0.52087053073435896</v>
       </c>
       <c r="N2">
-        <v>23.111079877085</v>
+        <v>7.0287476472872399</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3177,43 +3265,43 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>10.8108108108108</v>
+        <v>13.5135135135135</v>
       </c>
       <c r="F3">
-        <v>4.8941903296977798E-2</v>
+        <v>2.2807837793595701E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>99</v>
       </c>
       <c r="I3">
-        <v>4362</v>
+        <v>5411</v>
       </c>
       <c r="J3">
         <v>68124</v>
       </c>
       <c r="K3">
-        <v>1.8930432245425299</v>
+        <v>1.9075620369281401</v>
       </c>
       <c r="L3">
-        <v>0.99688247150819498</v>
+        <v>0.92957982174730103</v>
       </c>
       <c r="M3">
-        <v>0.85391572245853498</v>
+        <v>0.73463199467023399</v>
       </c>
       <c r="N3">
-        <v>43.537443916712697</v>
+        <v>23.111079877085</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3221,43 +3309,43 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>5.4054054054053999</v>
+        <v>10.8108108108108</v>
       </c>
       <c r="F4">
-        <v>6.7516775175435806E-2</v>
+        <v>4.8941903296977798E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>99</v>
       </c>
       <c r="I4">
-        <v>1512</v>
+        <v>4362</v>
       </c>
       <c r="J4">
         <v>68124</v>
       </c>
       <c r="K4">
-        <v>2.7306397306397301</v>
+        <v>1.8930432245425299</v>
       </c>
       <c r="L4">
-        <v>0.999677360018706</v>
+        <v>0.99688247150819498</v>
       </c>
       <c r="M4">
-        <v>0.86597693491517602</v>
+        <v>0.85391572245853498</v>
       </c>
       <c r="N4">
-        <v>54.898955262345901</v>
+        <v>43.537443916712697</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3265,42 +3353,86 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1.8018018018018001</v>
+        <v>5.4054054054053999</v>
       </c>
       <c r="F5">
-        <v>9.9806561003447494E-2</v>
+        <v>6.7516775175435806E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>99</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>1512</v>
       </c>
       <c r="J5">
         <v>68124</v>
       </c>
       <c r="K5">
+        <v>2.7306397306397301</v>
+      </c>
+      <c r="L5">
+        <v>0.999677360018706</v>
+      </c>
+      <c r="M5">
+        <v>0.86597693491517602</v>
+      </c>
+      <c r="N5">
+        <v>54.898955262345901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1.8018018018018001</v>
+      </c>
+      <c r="F6">
+        <v>9.9806561003447494E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>73</v>
+      </c>
+      <c r="J6">
+        <v>68124</v>
+      </c>
+      <c r="K6">
         <v>18.852635948526299</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>0.99999439440163396</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>0.91093144726395003</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>69.811043753713406</v>
       </c>
     </row>
